--- a/textconv-difftool/hoge.xlsx
+++ b/textconv-difftool/hoge.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">a</t>
   </si>
   <si>
-    <t xml:space="preserve">b</t>
+    <t xml:space="preserve">d</t>
   </si>
   <si>
     <t xml:space="preserve">c</t>
@@ -116,8 +116,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -142,19 +146,19 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.91015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
